--- a/biology/Botanique/Acis_nicaeensis/Acis_nicaeensis.xlsx
+++ b/biology/Botanique/Acis_nicaeensis/Acis_nicaeensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nivéole de Nice
 Acis nicaeensis, en français la Nivéole de Nice ou Acis de Nice, anciennement nommée Nivéole d’hiver, est une espèce de plantes herbacées de la famille des Liliaceae selon la classification classique. La classification phylogénétique la place dans la famille des Amaryllidaceae (ou optionnellement dans celle des Alliaceae). Elle fleurit au printemps.
@@ -514,13 +526,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-A. nicaeensis est une plante peuvent atteindre des hauteurs variables selon les sources[Lesquelles ?] de 5 à 10 centimètres ou 20-40 cm sans savoir si ces variations sont dues à la nature des lieux où elles s'installent.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. nicaeensis est une plante peuvent atteindre des hauteurs variables selon les sources[Lesquelles ?] de 5 à 10 centimètres ou 20-40 cm sans savoir si ces variations sont dues à la nature des lieux où elles s'installent.
 Les feuilles sont glabres, simples et basales. Elles sont linéaires avec un bord entier.
 Les racines sont de petits bulbes ovoïdes.
-Appareil reproductif
-La floraison a lieu en mars. Les plantes présentent des fleurs en forme de cloche de couleur blanche. Les fleurs s'organisent en ombelle et sont orientées tête inclinée vers le bas.
-Les plantes produisent des capsules de déhiscence loculicide.
 </t>
         </is>
       </c>
@@ -546,12 +560,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Distribution et habitat</t>
+          <t>Caractéristiques</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">A. nicaeensis est une endémique de la Riviera française (Est de Nice jusqu'aux confins de la Riviera italienne), où trente-six populations sont actuellement recensées. On la rencontre jusqu’à 1 000 m d’altitude. C’est une plante vivace, à feuilles très étroites et rabattues, et à fleurs d’un blanc pur, solitaires, parfois par deux, qui s’épanouissent en mars-avril. Sa population étant sur le déclin depuis les années 50, elle est classée « espèce en danger » depuis 2011[1].
+          <t>Appareil reproductif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu en mars. Les plantes présentent des fleurs en forme de cloche de couleur blanche. Les fleurs s'organisent en ombelle et sont orientées tête inclinée vers le bas.
+Les plantes produisent des capsules de déhiscence loculicide.
 </t>
         </is>
       </c>
@@ -577,10 +598,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A. nicaeensis est une endémique de la Riviera française (Est de Nice jusqu'aux confins de la Riviera italienne), où trente-six populations sont actuellement recensées. On la rencontre jusqu’à 1 000 m d’altitude. C’est une plante vivace, à feuilles très étroites et rabattues, et à fleurs d’un blanc pur, solitaires, parfois par deux, qui s’épanouissent en mars-avril. Sa population étant sur le déclin depuis les années 50, elle est classée « espèce en danger » depuis 2011.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Acis_nicaeensis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acis_nicaeensis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">A. nicaeensis comme A. autumnalis, moyennement rustiques, requièrent pour prospérer un emplacement chaud et abrité dans la rocaille sur sols frais au substrat limono-sableux, leurs feuilles, présentes presque toute l’année, peuvent supporter des températures jusqu'á -18 °C, mais souffrir du gel intense. Il faut se procurer ces espèces chez des producteurs spécialisés.
 </t>
